--- a/sources/Outiles/MobMap/MobTerre.xlsx
+++ b/sources/Outiles/MobMap/MobTerre.xlsx
@@ -5,22 +5,34 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\GitHub\SpaceShooter\sources\Outiles\MobMap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elève\Documents\projet\SpaceShooter\sources\Outiles\MobMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDC501C3-FCF1-4F1D-B692-EB9B47F24AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{613DAE6C-E5C2-4C0A-95D3-00057BFB7872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60540" yWindow="4380" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="names" sheetId="1" r:id="rId1"/>
+    <sheet name="MobTerre" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="77">
   <si>
     <t>name_wave_0</t>
   </si>
@@ -86,6 +98,162 @@
   </si>
   <si>
     <t>Wave</t>
+  </si>
+  <si>
+    <t>name_wave_7</t>
+  </si>
+  <si>
+    <t>number_wave_7</t>
+  </si>
+  <si>
+    <t>type_wave_7</t>
+  </si>
+  <si>
+    <t>name_wave_8</t>
+  </si>
+  <si>
+    <t>number_wave_8</t>
+  </si>
+  <si>
+    <t>type_wave_8</t>
+  </si>
+  <si>
+    <t>name_wave_9</t>
+  </si>
+  <si>
+    <t>number_wave_9</t>
+  </si>
+  <si>
+    <t>type_wave_9</t>
+  </si>
+  <si>
+    <t>name_wave_10</t>
+  </si>
+  <si>
+    <t>number_wave_10</t>
+  </si>
+  <si>
+    <t>type_wave_10</t>
+  </si>
+  <si>
+    <t>name_wave_11</t>
+  </si>
+  <si>
+    <t>number_wave_11</t>
+  </si>
+  <si>
+    <t>type_wave_11</t>
+  </si>
+  <si>
+    <t>name_wave_12</t>
+  </si>
+  <si>
+    <t>number_wave_12</t>
+  </si>
+  <si>
+    <t>type_wave_12</t>
+  </si>
+  <si>
+    <t>name_wave_13</t>
+  </si>
+  <si>
+    <t>number_wave_13</t>
+  </si>
+  <si>
+    <t>type_wave_13</t>
+  </si>
+  <si>
+    <t>name_wave_14</t>
+  </si>
+  <si>
+    <t>number_wave_14</t>
+  </si>
+  <si>
+    <t>type_wave_14</t>
+  </si>
+  <si>
+    <t>name_wave_15</t>
+  </si>
+  <si>
+    <t>number_wave_15</t>
+  </si>
+  <si>
+    <t>type_wave_15</t>
+  </si>
+  <si>
+    <t>name_wave_16</t>
+  </si>
+  <si>
+    <t>number_wave_16</t>
+  </si>
+  <si>
+    <t>type_wave_16</t>
+  </si>
+  <si>
+    <t>name_wave_17</t>
+  </si>
+  <si>
+    <t>number_wave_17</t>
+  </si>
+  <si>
+    <t>type_wave_17</t>
+  </si>
+  <si>
+    <t>name_wave_18</t>
+  </si>
+  <si>
+    <t>number_wave_18</t>
+  </si>
+  <si>
+    <t>type_wave_18</t>
+  </si>
+  <si>
+    <t>name_wave_19</t>
+  </si>
+  <si>
+    <t>number_wave_19</t>
+  </si>
+  <si>
+    <t>type_wave_19</t>
+  </si>
+  <si>
+    <t>name_wave_20</t>
+  </si>
+  <si>
+    <t>number_wave_20</t>
+  </si>
+  <si>
+    <t>type_wave_20</t>
+  </si>
+  <si>
+    <t>NutArcher_Sprite</t>
+  </si>
+  <si>
+    <t>SHOOTER</t>
+  </si>
+  <si>
+    <t>BoltArcher_Sprite</t>
+  </si>
+  <si>
+    <t>KingToad_Sprite</t>
+  </si>
+  <si>
+    <t>NutMage_Sprite1</t>
+  </si>
+  <si>
+    <t>HEAL</t>
+  </si>
+  <si>
+    <t>Rocky_Sprite</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>Bolt_Sprite</t>
+  </si>
+  <si>
+    <t>NutTroop_Sprite</t>
   </si>
   <si>
     <t>Dolphin_Sprite</t>
@@ -466,7 +634,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -603,19 +771,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -635,6 +790,34 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -689,15 +872,15 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1053,231 +1236,862 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="25" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" customWidth="1"/>
-    <col min="21" max="21" width="28.42578125" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="11">
+        <v>4</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="5">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="5">
+        <v>6</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="U2" s="11">
+        <v>10</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>30</v>
+      </c>
+      <c r="AK2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" s="5">
+        <v>35</v>
+      </c>
+      <c r="AN2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="5">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AS2" s="11">
+        <v>40</v>
+      </c>
+      <c r="AT2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV2" s="5">
+        <v>25</v>
+      </c>
+      <c r="AW2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>25</v>
+      </c>
+      <c r="AZ2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>44</v>
+      </c>
+      <c r="BC2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE2" s="11">
+        <v>30</v>
+      </c>
+      <c r="BF2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH2" s="5">
+        <v>35</v>
+      </c>
+      <c r="BI2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" s="5">
+        <v>1</v>
+      </c>
+      <c r="BL2" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="5">
+        <v>4</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="5">
+        <v>14</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U3" s="5">
+        <v>10</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>15</v>
+      </c>
+      <c r="AE3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AP3" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS3" s="5">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>25</v>
+      </c>
+      <c r="AW3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY3" s="5">
+        <v>12</v>
+      </c>
+      <c r="AZ3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB3" s="5">
+        <v>56</v>
+      </c>
+      <c r="BC3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE3" s="5">
+        <v>30</v>
+      </c>
+      <c r="BF3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BH3" s="5">
+        <v>50</v>
+      </c>
+      <c r="BI3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK3" s="5">
+        <v>1</v>
+      </c>
+      <c r="BL3" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="5">
+        <v>8</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="5">
+        <v>5</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>15</v>
+      </c>
+      <c r="AE4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>16</v>
+      </c>
+      <c r="AK4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" s="5">
         <v>22</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="10"/>
+      <c r="AN4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>25</v>
+      </c>
+      <c r="AW4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY4" s="5">
+        <v>38</v>
+      </c>
+      <c r="AZ4" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="5"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE4" s="5">
+        <v>25</v>
+      </c>
+      <c r="BF4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH4" s="5">
+        <v>20</v>
+      </c>
+      <c r="BI4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="5"/>
+      <c r="BL4" s="8"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="11"/>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="8"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="8"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="8"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="8"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="5"/>
+      <c r="AZ5" s="8"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="5"/>
+      <c r="BC5" s="8"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="5"/>
+      <c r="BF5" s="8"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="5"/>
+      <c r="BI5" s="8"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="5"/>
+      <c r="BL5" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="11"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="11"/>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="12"/>
+    <row r="6" spans="1:64" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="3"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="3"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="6"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="3"/>
+      <c r="BB6" s="6"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="3"/>
+      <c r="BE6" s="6"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="6"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="3"/>
+      <c r="BK6" s="6"/>
+      <c r="BL6" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
